--- a/05 ОВиК/спецификация.xlsx
+++ b/05 ОВиК/спецификация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="213">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">Тройник 120х60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клапан обратный 120х60</t>
   </si>
   <si>
     <t xml:space="preserve">Решетка переточная</t>
@@ -926,24 +929,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:108"/>
+  <dimension ref="1:109"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="54:54"/>
+      <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2426,20 +2428,18 @@
       <c r="B30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="E30" s="8"/>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2476,7 +2476,7 @@
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>61</v>
@@ -2489,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
@@ -2528,24 +2528,22 @@
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="8" t="n">
-        <v>521</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2585,7 +2583,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="8" t="n">
-        <v>5151</v>
+        <v>521</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
@@ -2595,7 +2593,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>32</v>
@@ -2639,7 +2637,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="8" t="n">
-        <v>5252</v>
+        <v>5151</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
@@ -2649,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>32</v>
@@ -2693,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="8" t="n">
-        <v>571</v>
+        <v>5252</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
@@ -2703,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>32</v>
@@ -2747,7 +2745,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="8" t="n">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
@@ -2757,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>32</v>
@@ -2801,7 +2799,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="8" t="n">
-        <v>5251</v>
+        <v>511</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
@@ -2855,7 +2853,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="8" t="n">
-        <v>518</v>
+        <v>5251</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
@@ -2909,7 +2907,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="8" t="n">
-        <v>222</v>
+        <v>518</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
@@ -2963,7 +2961,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="8" t="n">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
@@ -2973,7 +2971,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>32</v>
@@ -3017,7 +3015,7 @@
         <v>71</v>
       </c>
       <c r="C41" s="8" t="n">
-        <v>2121</v>
+        <v>232</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -3071,7 +3069,7 @@
         <v>72</v>
       </c>
       <c r="C42" s="8" t="n">
-        <v>8281</v>
+        <v>2121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
@@ -3124,9 +3122,13 @@
       <c r="B43" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8" t="n">
+        <v>8281</v>
+      </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3169,7 +3171,7 @@
       <c r="AM43" s="15"/>
       <c r="AN43" s="15"/>
     </row>
-    <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="14" t="s">
         <v>74</v>
@@ -3181,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>37</v>
@@ -3219,7 +3221,7 @@
       <c r="AM44" s="15"/>
       <c r="AN44" s="15"/>
     </row>
-    <row r="45" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="14" t="s">
         <v>75</v>
@@ -3231,9 +3233,11 @@
         <v>11</v>
       </c>
       <c r="G45" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H45" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3279,7 +3283,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
@@ -3327,7 +3331,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
@@ -3363,15 +3367,21 @@
       <c r="AM47" s="15"/>
       <c r="AN47" s="15"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="B48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3405,21 +3415,15 @@
       <c r="AM48" s="15"/>
       <c r="AN48" s="15"/>
     </row>
-    <row r="49" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
-      <c r="B49" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="8"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3465,7 +3469,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -3645,7 +3649,7 @@
       <c r="AM53" s="15"/>
       <c r="AN53" s="15"/>
     </row>
-    <row r="54" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="14" t="s">
         <v>83</v>
@@ -3693,7 +3697,7 @@
       <c r="AM54" s="15"/>
       <c r="AN54" s="15"/>
     </row>
-    <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="14" t="s">
         <v>84</v>
@@ -3702,10 +3706,10 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G55" s="8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -3744,16 +3748,16 @@
     <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G56" s="8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -3798,10 +3802,10 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -3846,10 +3850,10 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G58" s="8" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -3894,10 +3898,10 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G59" s="8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -3942,10 +3946,10 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -3990,7 +3994,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G61" s="8" t="n">
         <v>1</v>
@@ -4038,10 +4042,10 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G62" s="8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4077,7 +4081,7 @@
       <c r="AM62" s="15"/>
       <c r="AN62" s="15"/>
     </row>
-    <row r="63" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="14" t="s">
         <v>93</v>
@@ -4089,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4125,7 +4129,7 @@
       <c r="AM63" s="15"/>
       <c r="AN63" s="15"/>
     </row>
-    <row r="64" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="14" t="s">
         <v>94</v>
@@ -4137,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4173,7 +4177,7 @@
       <c r="AM64" s="15"/>
       <c r="AN64" s="15"/>
     </row>
-    <row r="65" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="14" t="s">
         <v>95</v>
@@ -4185,7 +4189,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4233,7 +4237,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="8" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4281,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="8" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -4329,7 +4333,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -4377,7 +4381,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -4473,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -4509,7 +4513,7 @@
       <c r="AM71" s="15"/>
       <c r="AN71" s="15"/>
     </row>
-    <row r="72" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="14" t="s">
         <v>102</v>
@@ -4521,11 +4525,9 @@
         <v>11</v>
       </c>
       <c r="G72" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" s="8"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4562,7 +4564,7 @@
     <row r="73" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4574,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4609,15 +4611,23 @@
       <c r="AM73" s="15"/>
       <c r="AN73" s="15"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="B74" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4651,21 +4661,15 @@
       <c r="AM74" s="15"/>
       <c r="AN74" s="15"/>
     </row>
-    <row r="75" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
-      <c r="B75" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="8"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4708,10 +4712,10 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G76" s="8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -4752,18 +4756,14 @@
       <c r="B77" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="E77" s="8"/>
       <c r="F77" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G77" s="8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -4802,14 +4802,14 @@
     <row r="78" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
@@ -4854,14 +4854,14 @@
     <row r="79" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
@@ -4906,20 +4906,20 @@
     <row r="80" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -4958,14 +4958,14 @@
     <row r="81" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
@@ -5010,14 +5010,14 @@
     <row r="82" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>11</v>
@@ -5062,20 +5062,20 @@
     <row r="83" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5114,21 +5114,20 @@
     <row r="84" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="8" t="n">
-        <f aca="false">8+2</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5167,21 +5166,21 @@
     <row r="85" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="8" t="n">
-        <f aca="false">4+4</f>
-        <v>8</v>
+        <f aca="false">8+2</f>
+        <v>10</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5220,16 +5219,21 @@
     <row r="86" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="8"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="8" t="n">
-        <v>32</v>
+        <f aca="false">4+4</f>
+        <v>8</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5270,19 +5274,14 @@
       <c r="B87" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="E87" s="8"/>
       <c r="F87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="8" t="n">
-        <f aca="false">4</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5321,19 +5320,20 @@
     <row r="88" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="8" t="n">
+        <f aca="false">4</f>
         <v>4</v>
       </c>
       <c r="H88" s="8"/>
@@ -5373,21 +5373,20 @@
     <row r="89" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="8" t="n">
-        <f aca="false">8+84+8+30</f>
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5426,21 +5425,21 @@
     <row r="90" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="8" t="n">
-        <f aca="false">8+52+8+26</f>
-        <v>94</v>
+        <f aca="false">8+84+8+30</f>
+        <v>130</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5479,14 +5478,14 @@
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
@@ -5532,18 +5531,21 @@
     <row r="92" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="8" t="n">
-        <v>8</v>
+        <f aca="false">8+52+8+26</f>
+        <v>94</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5582,21 +5584,18 @@
     <row r="93" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="E93" s="8"/>
       <c r="F93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="8" t="n">
-        <f aca="false">8+8+4</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5635,14 +5634,14 @@
     <row r="94" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>11</v>
@@ -5688,14 +5687,14 @@
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>11</v>
@@ -5741,21 +5740,21 @@
     <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="8" t="n">
-        <f aca="false">0.4+0.5+0.25+0.5</f>
-        <v>1.65</v>
+        <f aca="false">8+8+4</f>
+        <v>20</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5794,21 +5793,21 @@
     <row r="97" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="8" t="n">
-        <f aca="false">12+14</f>
-        <v>26</v>
+        <f aca="false">0.4+0.5+0.25+0.5</f>
+        <v>1.65</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5847,16 +5846,21 @@
     <row r="98" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="8"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
+      <c r="E98" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F98" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G98" s="8" t="n">
-        <v>6</v>
+        <f aca="false">12+14</f>
+        <v>26</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5901,10 +5905,10 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G99" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5952,7 +5956,7 @@
         <v>11</v>
       </c>
       <c r="G100" s="8" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6000,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="G101" s="8" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6048,7 +6052,7 @@
         <v>11</v>
       </c>
       <c r="G102" s="8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6093,10 +6097,10 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="G103" s="8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6135,16 +6139,16 @@
     <row r="104" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G104" s="8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6180,24 +6184,31 @@
       <c r="AM104" s="15"/>
       <c r="AN104" s="15"/>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="18"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+    <row r="105" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4"/>
+      <c r="B105" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H105" s="8"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
       <c r="U105" s="15"/>
@@ -6220,33 +6231,26 @@
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
       <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4"/>
-      <c r="B106" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="H106" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
       <c r="S106" s="15"/>
       <c r="T106" s="15"/>
       <c r="U106" s="15"/>
@@ -6269,8 +6273,9 @@
       <c r="AL106" s="15"/>
       <c r="AM106" s="15"/>
       <c r="AN106" s="15"/>
-    </row>
-    <row r="107" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO106" s="15"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="14" t="s">
         <v>158</v>
@@ -6279,10 +6284,10 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G107" s="8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6318,19 +6323,19 @@
       <c r="AM107" s="15"/>
       <c r="AN107" s="15"/>
     </row>
-    <row r="108" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="G108" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6366,6 +6371,54 @@
       <c r="AM108" s="15"/>
       <c r="AN108" s="15"/>
     </row>
+    <row r="109" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4"/>
+      <c r="B109" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="15"/>
+      <c r="AN109" s="15"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6387,19 +6440,18 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I2" activeCellId="1" sqref="54:54 I2"/>
+      <selection pane="bottomLeft" activeCell="I2" activeCellId="1" sqref="H30 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6431,10 +6483,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="20"/>
@@ -6448,10 +6500,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="20"/>
@@ -6465,10 +6517,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="20"/>
@@ -6482,10 +6534,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="20"/>
@@ -6499,10 +6551,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="20"/>
@@ -6516,10 +6568,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="20"/>
@@ -6533,10 +6585,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="20"/>
@@ -6550,10 +6602,10 @@
     </row>
     <row r="9" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="20"/>
@@ -6567,10 +6619,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="20"/>
@@ -6584,10 +6636,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="1" t="s">
@@ -6599,10 +6651,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="1" t="s">
@@ -6633,19 +6685,18 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="1" sqref="54:54 B6"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="1" sqref="H30 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6677,13 +6728,13 @@
     </row>
     <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -6694,13 +6745,13 @@
     </row>
     <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -6711,13 +6762,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -6728,13 +6779,13 @@
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -6745,13 +6796,13 @@
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -6762,13 +6813,13 @@
     </row>
     <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -6779,13 +6830,13 @@
     </row>
     <row r="8" customFormat="false" ht="36.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -6796,13 +6847,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -6813,13 +6864,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -6830,13 +6881,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -6847,13 +6898,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -6864,13 +6915,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -6881,13 +6932,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -6898,13 +6949,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>

--- a/05 ОВиК/спецификация.xlsx
+++ b/05 ОВиК/спецификация.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ЭУИ Legrand" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ЭУИ ABB" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -508,161 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">Фольга для бани, рулон 10 кв.м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамка 1-местная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамка 2-местная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамка 4-местная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамка 5-местная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кнопка 1-клавишная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кнопка 2-клавишная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7742 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модуль розеточный с заземлением и шторками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная розетка RJ-45 с 1 разъемом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7742 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Розетка ТВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Розетка для колонок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7742 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод кабеля</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legrand 7744 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-243, модуль розеточный с заземлением и шторками, белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-218, модуль розеточный с заземлением и крышкой, белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-247, розетка RJ-45, белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-273, розетка ТВ оконечная с экранированием, белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-205, выключатель кнопочный одноклавишный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-257, выключатель кнопочный двуклавишный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-216, выключатель кнопочный
-2-клавишный для управления
-жалюзи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-241, аудиорозетка двойная, белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-262, датчик движения релейный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 619-010200-299, заглушка белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619-010200-299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 612-010200-271, рамка 1 пост белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-010200-271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 612-010200-226, рамка 2 поста белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-010200-226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 612-010200-227, рамка 3 поста белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-010200-227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABB 612-010200-228, рамка 4 поста белая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612-010200-228</t>
   </si>
 </sst>
 </file>
@@ -763,7 +606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -838,18 +681,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -932,20 +763,21 @@
   <dimension ref="1:109"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6428,549 +6260,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I2" activeCellId="1" sqref="H30 I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="H8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="1" sqref="H30 B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/05 ОВиК/спецификация.xlsx
+++ b/05 ОВиК/спецификация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -763,21 +763,21 @@
   <dimension ref="1:109"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1467,7 +1467,7 @@
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>36</v>

--- a/05 ОВиК/спецификация.xlsx
+++ b/05 ОВиК/спецификация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">Фильтр 125 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛК 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU3</t>
   </si>
   <si>
     <t xml:space="preserve">Увлажнитель ультразвуковой</t>
@@ -765,19 +771,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1014,7 +1020,9 @@
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -1023,7 +1031,9 @@
       <c r="G6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1060,14 +1070,14 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -1112,7 +1122,7 @@
     <row r="8" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1124,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1162,7 +1172,7 @@
     <row r="9" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1174,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1212,7 +1222,7 @@
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1224,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1262,14 +1272,14 @@
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
@@ -1278,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1316,10 +1326,10 @@
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1366,10 +1376,10 @@
     <row r="13" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1380,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1418,14 +1428,14 @@
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -1470,7 +1480,7 @@
     <row r="15" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1482,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1520,7 +1530,7 @@
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1532,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1570,7 +1580,7 @@
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1582,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1620,7 +1630,7 @@
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1632,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1670,14 +1680,14 @@
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>121</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -1722,14 +1732,14 @@
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="n">
         <v>310</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -1738,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1776,14 +1786,14 @@
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>812</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -1828,14 +1838,14 @@
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
@@ -1844,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1882,14 +1892,14 @@
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="n">
         <v>838</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
@@ -1934,14 +1944,14 @@
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="n">
         <v>871</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
@@ -1950,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1988,14 +1998,14 @@
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -2004,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2042,14 +2052,14 @@
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8" t="n">
         <v>711</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
@@ -2058,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,14 +2106,14 @@
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
@@ -2112,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2150,14 +2160,14 @@
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="n">
         <v>7271</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -2166,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,14 +2214,14 @@
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="n">
         <v>737</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -2220,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2258,7 +2268,7 @@
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2270,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2308,14 +2318,14 @@
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
@@ -2360,14 +2370,14 @@
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
@@ -2412,14 +2422,14 @@
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="8" t="n">
         <v>521</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
@@ -2428,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2466,14 +2476,14 @@
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="n">
         <v>5151</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
@@ -2482,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2520,14 +2530,14 @@
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="n">
         <v>5252</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
@@ -2536,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2574,14 +2584,14 @@
     <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="8" t="n">
         <v>571</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
@@ -2590,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2628,14 +2638,14 @@
     <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C37" s="8" t="n">
         <v>511</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
@@ -2644,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2682,14 +2692,14 @@
     <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" s="8" t="n">
         <v>5251</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
@@ -2698,7 +2708,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2736,14 +2746,14 @@
     <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="8" t="n">
         <v>518</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
@@ -2752,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2790,14 +2800,14 @@
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" s="8" t="n">
         <v>222</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
@@ -2806,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2844,14 +2854,14 @@
     <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8" t="n">
         <v>232</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
@@ -2860,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2898,14 +2908,14 @@
     <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C42" s="8" t="n">
         <v>2121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
@@ -2914,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2952,14 +2962,14 @@
     <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C43" s="8" t="n">
         <v>8281</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
@@ -2968,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3006,7 +3016,7 @@
     <row r="44" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3018,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3056,7 +3066,7 @@
     <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3068,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3106,7 +3116,7 @@
     <row r="46" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3154,7 +3164,7 @@
     <row r="47" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3202,7 +3212,7 @@
     <row r="48" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3292,7 +3302,7 @@
     <row r="50" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3340,7 +3350,7 @@
     <row r="51" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3388,7 +3398,7 @@
     <row r="52" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3436,7 +3446,7 @@
     <row r="53" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3484,7 +3494,7 @@
     <row r="54" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3532,7 +3542,7 @@
     <row r="55" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3580,13 +3590,13 @@
     <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G56" s="8" t="n">
         <v>6</v>
@@ -3628,13 +3638,13 @@
     <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G57" s="8" t="n">
         <v>1</v>
@@ -3676,13 +3686,13 @@
     <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G58" s="8" t="n">
         <v>5</v>
@@ -3724,13 +3734,13 @@
     <row r="59" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G59" s="8" t="n">
         <v>13</v>
@@ -3772,13 +3782,13 @@
     <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" s="8" t="n">
         <v>2</v>
@@ -3820,13 +3830,13 @@
     <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G61" s="8" t="n">
         <v>1</v>
@@ -3868,13 +3878,13 @@
     <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G62" s="8" t="n">
         <v>1</v>
@@ -3916,7 +3926,7 @@
     <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3964,7 +3974,7 @@
     <row r="64" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4012,7 +4022,7 @@
     <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -4060,7 +4070,7 @@
     <row r="66" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -4108,7 +4118,7 @@
     <row r="67" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4156,7 +4166,7 @@
     <row r="68" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -4204,7 +4214,7 @@
     <row r="69" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -4252,7 +4262,7 @@
     <row r="70" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -4300,7 +4310,7 @@
     <row r="71" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -4348,7 +4358,7 @@
     <row r="72" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4396,7 +4406,7 @@
     <row r="73" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4408,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4446,7 +4456,7 @@
     <row r="74" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -4458,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4538,7 +4548,7 @@
     <row r="76" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -4586,13 +4596,13 @@
     <row r="77" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G77" s="8" t="n">
         <v>10</v>
@@ -4634,14 +4644,14 @@
     <row r="78" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
@@ -4686,14 +4696,14 @@
     <row r="79" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
@@ -4738,14 +4748,14 @@
     <row r="80" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
@@ -4790,14 +4800,14 @@
     <row r="81" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
@@ -4842,14 +4852,14 @@
     <row r="82" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>11</v>
@@ -4894,14 +4904,14 @@
     <row r="83" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>11</v>
@@ -4946,14 +4956,14 @@
     <row r="84" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>11</v>
@@ -4998,14 +5008,14 @@
     <row r="85" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>11</v>
@@ -5051,14 +5061,14 @@
     <row r="86" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>11</v>
@@ -5104,7 +5114,7 @@
     <row r="87" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -5152,14 +5162,14 @@
     <row r="88" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>11</v>
@@ -5205,14 +5215,14 @@
     <row r="89" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>11</v>
@@ -5257,14 +5267,14 @@
     <row r="90" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>11</v>
@@ -5310,14 +5320,14 @@
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
@@ -5363,14 +5373,14 @@
     <row r="92" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>11</v>
@@ -5416,10 +5426,10 @@
     <row r="93" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -5466,14 +5476,14 @@
     <row r="94" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>11</v>
@@ -5519,14 +5529,14 @@
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>11</v>
@@ -5572,14 +5582,14 @@
     <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>11</v>
@@ -5625,14 +5635,14 @@
     <row r="97" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
@@ -5678,14 +5688,14 @@
     <row r="98" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>11</v>
@@ -5731,13 +5741,13 @@
     <row r="99" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G99" s="8" t="n">
         <v>6</v>
@@ -5779,7 +5789,7 @@
     <row r="100" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -5827,7 +5837,7 @@
     <row r="101" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -5875,7 +5885,7 @@
     <row r="102" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -5923,7 +5933,7 @@
     <row r="103" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -5971,13 +5981,13 @@
     <row r="104" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G104" s="8" t="n">
         <v>10</v>
@@ -6019,7 +6029,7 @@
     <row r="105" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -6110,7 +6120,7 @@
     <row r="107" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -6158,13 +6168,13 @@
     <row r="108" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G108" s="8" t="n">
         <v>1</v>
@@ -6206,7 +6216,7 @@
     <row r="109" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
